--- a/Matriz de Concorrência.xlsx
+++ b/Matriz de Concorrência.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/maryanna_silva_sptech_school/Documents/Documents/SPTech - 3º Semestre/PROJETO - CAR CROWD SYSTEM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/maryanna_silva_sptech_school/Documents/Documents/SPTech - 3º Semestre/PROJETO - CAR CROWD SYSTEM/Documentacao-CCS/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{0B58FEAA-9193-43EC-8B5C-F7BF3855E53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -162,13 +162,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -495,7 +494,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,22 +504,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -528,16 +527,16 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -548,16 +547,16 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -568,16 +567,16 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -588,16 +587,16 @@
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -608,16 +607,16 @@
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -628,16 +627,16 @@
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -645,19 +644,19 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -665,19 +664,19 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="1" t="s">
